--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5B8D5-7734-4FA6-93CB-8A7A696D6508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503B473-3487-4577-A1A7-8DFE0CEEBEB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="221">
   <si>
     <t>id,num</t>
   </si>
@@ -1721,11 +1721,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF133"/>
+  <dimension ref="A1:AF134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14723,6 +14723,104 @@
         <v>0</v>
       </c>
       <c r="AF133" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A134" s="17">
+        <v>110008</v>
+      </c>
+      <c r="B134" s="17">
+        <v>1</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D134" s="18">
+        <v>2</v>
+      </c>
+      <c r="E134" s="18">
+        <v>0</v>
+      </c>
+      <c r="F134" s="17">
+        <v>7</v>
+      </c>
+      <c r="G134" s="18">
+        <v>14</v>
+      </c>
+      <c r="H134" s="33">
+        <v>2</v>
+      </c>
+      <c r="I134" s="33">
+        <v>2</v>
+      </c>
+      <c r="J134" s="17">
+        <v>0</v>
+      </c>
+      <c r="K134" s="17">
+        <v>0</v>
+      </c>
+      <c r="L134" s="17">
+        <v>0</v>
+      </c>
+      <c r="M134" s="18">
+        <v>8</v>
+      </c>
+      <c r="N134" s="35">
+        <v>4003</v>
+      </c>
+      <c r="O134" s="33">
+        <v>250</v>
+      </c>
+      <c r="P134" s="33">
+        <v>250</v>
+      </c>
+      <c r="Q134" s="17">
+        <v>0</v>
+      </c>
+      <c r="R134" s="17">
+        <v>3</v>
+      </c>
+      <c r="S134" s="17">
+        <v>10</v>
+      </c>
+      <c r="T134" s="33">
+        <v>25</v>
+      </c>
+      <c r="U134" s="33">
+        <v>25</v>
+      </c>
+      <c r="V134" s="17">
+        <v>0</v>
+      </c>
+      <c r="W134" s="17">
+        <v>0</v>
+      </c>
+      <c r="X134" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z134" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF134" s="17">
         <v>0</v>
       </c>
     </row>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503B473-3487-4577-A1A7-8DFE0CEEBEB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D7775-37C4-497F-AEF2-A92C0BA87F0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="221">
   <si>
     <t>id,num</t>
   </si>
@@ -1721,11 +1721,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14821,6 +14821,104 @@
         <v>0</v>
       </c>
       <c r="AF134" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A135" s="17">
+        <v>1</v>
+      </c>
+      <c r="B135" s="17">
+        <v>1</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D135" s="18">
+        <v>2</v>
+      </c>
+      <c r="E135" s="18">
+        <v>0</v>
+      </c>
+      <c r="F135" s="17">
+        <v>7</v>
+      </c>
+      <c r="G135" s="18">
+        <v>14</v>
+      </c>
+      <c r="H135" s="33">
+        <v>2</v>
+      </c>
+      <c r="I135" s="33">
+        <v>2</v>
+      </c>
+      <c r="J135" s="17">
+        <v>0</v>
+      </c>
+      <c r="K135" s="17">
+        <v>0</v>
+      </c>
+      <c r="L135" s="17">
+        <v>0</v>
+      </c>
+      <c r="M135" s="18">
+        <v>8</v>
+      </c>
+      <c r="N135" s="35">
+        <v>4003</v>
+      </c>
+      <c r="O135" s="33">
+        <v>250</v>
+      </c>
+      <c r="P135" s="33">
+        <v>250</v>
+      </c>
+      <c r="Q135" s="17">
+        <v>0</v>
+      </c>
+      <c r="R135" s="17">
+        <v>3</v>
+      </c>
+      <c r="S135" s="17">
+        <v>10</v>
+      </c>
+      <c r="T135" s="33">
+        <v>25</v>
+      </c>
+      <c r="U135" s="33">
+        <v>25</v>
+      </c>
+      <c r="V135" s="17">
+        <v>0</v>
+      </c>
+      <c r="W135" s="17">
+        <v>0</v>
+      </c>
+      <c r="X135" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z135" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF135" s="17">
         <v>0</v>
       </c>
     </row>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503B473-3487-4577-A1A7-8DFE0CEEBEB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AD4BBF-263D-41C3-A68D-C4A5D84B54DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14728,7 +14728,7 @@
     </row>
     <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="17">
-        <v>110008</v>
+        <v>2</v>
       </c>
       <c r="B134" s="17">
         <v>1</v>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AD4BBF-263D-41C3-A68D-C4A5D84B54DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348A642-20AF-46A5-B120-20496C7C442C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="222">
   <si>
     <t>id,num</t>
   </si>
@@ -870,6 +870,10 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改版本1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1725,7 +1729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14727,8 +14731,8 @@
       </c>
     </row>
     <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="17">
-        <v>2</v>
+      <c r="A134" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="B134" s="17">
         <v>1</v>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AD4BBF-263D-41C3-A68D-C4A5D84B54DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9A8EC-5554-42BE-B6B0-7DCF349B4342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="222">
   <si>
     <t>id,num</t>
   </si>
@@ -870,6 +870,10 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -14727,8 +14731,8 @@
       </c>
     </row>
     <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="17">
-        <v>2</v>
+      <c r="A134" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="B134" s="17">
         <v>1</v>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9A8EC-5554-42BE-B6B0-7DCF349B4342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646C34C-6296-4E82-8FEE-7313E3D27E07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,7 +873,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>版本2</t>
+    <t>版本988</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1729,7 +1729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9A8EC-5554-42BE-B6B0-7DCF349B4342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD82728-58B5-4C97-B867-C4F467659C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1729,7 +1729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13580,7 +13580,7 @@
         <v>300</v>
       </c>
       <c r="I122" s="14">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="J122" s="14">
         <v>0</v>
@@ -14655,10 +14655,10 @@
         <v>14</v>
       </c>
       <c r="H133" s="33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I133" s="33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J133" s="17">
         <v>0</v>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97C6101-915F-4871-81B5-2EBFA0A23190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B970A9D6-6905-453C-9F71-7634631706C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,7 +873,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>版本988</t>
+    <t>测试1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1729,7 +1729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97C6101-915F-4871-81B5-2EBFA0A23190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11023DA-BFA2-44F2-AFC3-B1FA14501C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,7 +873,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>版本988</t>
+    <t>测试2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1729,7 +1729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A6C731-AA01-4A74-AF0E-8F2D3FA7329E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407DDA0E-AD69-4D6A-B010-67B0CC70A204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1731,8 +1731,8 @@
   <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146:F147"/>
+      <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A115" s="18">
-        <v>101001</v>
+        <v>432141</v>
       </c>
       <c r="B115" s="18">
         <v>1</v>
@@ -12971,7 +12971,7 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A116" s="18">
-        <v>101002</v>
+        <v>4321</v>
       </c>
       <c r="B116" s="18">
         <v>1</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="117" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="18">
-        <v>101003</v>
+        <v>4312</v>
       </c>
       <c r="B117" s="18">
         <v>1</v>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="118" spans="1:32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
-        <v>101004</v>
+        <v>4321</v>
       </c>
       <c r="B118" s="18">
         <v>1</v>
@@ -13265,7 +13265,7 @@
     </row>
     <row r="119" spans="1:32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
-        <v>101005</v>
+        <v>1010432105</v>
       </c>
       <c r="B119" s="18">
         <v>1</v>
@@ -13363,7 +13363,7 @@
     </row>
     <row r="120" spans="1:32" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
-        <v>101006</v>
+        <v>1010432106</v>
       </c>
       <c r="B120" s="18">
         <v>1</v>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A6C731-AA01-4A74-AF0E-8F2D3FA7329E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABBC683-A7BF-42EA-90D2-BE90842EBBFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="224">
   <si>
     <t>id,num</t>
   </si>
@@ -878,6 +878,10 @@
   </si>
   <si>
     <t>测试2</t>
+  </si>
+  <si>
+    <t>测32</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1728,11 +1732,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146:F147"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14926,6 +14930,104 @@
         <v>0</v>
       </c>
       <c r="AF135" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A136" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B136" s="18">
+        <v>1</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D136" s="18">
+        <v>2</v>
+      </c>
+      <c r="E136" s="18">
+        <v>0</v>
+      </c>
+      <c r="F136" s="18">
+        <v>7</v>
+      </c>
+      <c r="G136" s="18">
+        <v>14</v>
+      </c>
+      <c r="H136" s="18">
+        <v>2</v>
+      </c>
+      <c r="I136" s="18">
+        <v>2</v>
+      </c>
+      <c r="J136" s="18">
+        <v>0</v>
+      </c>
+      <c r="K136" s="18">
+        <v>0</v>
+      </c>
+      <c r="L136" s="18">
+        <v>0</v>
+      </c>
+      <c r="M136" s="18">
+        <v>8</v>
+      </c>
+      <c r="N136" s="18">
+        <v>4003</v>
+      </c>
+      <c r="O136" s="18">
+        <v>250</v>
+      </c>
+      <c r="P136" s="18">
+        <v>250</v>
+      </c>
+      <c r="Q136" s="18">
+        <v>0</v>
+      </c>
+      <c r="R136" s="18">
+        <v>3</v>
+      </c>
+      <c r="S136" s="18">
+        <v>10</v>
+      </c>
+      <c r="T136" s="18">
+        <v>25</v>
+      </c>
+      <c r="U136" s="18">
+        <v>25</v>
+      </c>
+      <c r="V136" s="18">
+        <v>0</v>
+      </c>
+      <c r="W136" s="18">
+        <v>0</v>
+      </c>
+      <c r="X136" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF136" s="18">
         <v>0</v>
       </c>
     </row>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407DDA0E-AD69-4D6A-B010-67B0CC70A204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFA67FF-A2F9-47BB-B68A-66CDE066F019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="222">
   <si>
     <t>id,num</t>
   </si>
@@ -588,15 +588,6 @@
   </si>
   <si>
     <t>副本2-3关卡宝箱</t>
-  </si>
-  <si>
-    <t>1号塔1层宝箱</t>
-  </si>
-  <si>
-    <t>1号塔2层宝箱</t>
-  </si>
-  <si>
-    <t>1号塔3层宝箱</t>
   </si>
   <si>
     <t>1号塔4层宝箱</t>
@@ -878,6 +869,13 @@
   </si>
   <si>
     <t>测试2</t>
+  </si>
+  <si>
+    <t>模拟流程1</t>
+  </si>
+  <si>
+    <t>模拟流程1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1732,7 +1730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7391,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7489,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7587,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7685,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -8665,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8763,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8861,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8959,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9057,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9155,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9253,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9351,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9449,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9547,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9645,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9743,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9841,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9939,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10037,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10135,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10233,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10331,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10429,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10527,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10625,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10723,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10821,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -14055,7 +14053,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14153,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14251,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14349,7 +14347,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14447,7 +14445,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14545,7 +14543,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14643,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D133" s="18">
         <v>2</v>
@@ -14735,13 +14733,13 @@
     </row>
     <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B134" s="17">
         <v>1</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D134" s="18">
         <v>2</v>
@@ -14833,13 +14831,13 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A135" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B135" s="18">
         <v>1</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D135" s="18">
         <v>2</v>
@@ -15076,125 +15074,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407DDA0E-AD69-4D6A-B010-67B0CC70A204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828BF781-7286-4AAA-BDAB-3FDDC9262FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="224">
   <si>
     <t>id,num</t>
   </si>
@@ -878,6 +878,10 @@
   </si>
   <si>
     <t>测试2</t>
+  </si>
+  <si>
+    <t>B:模拟流程1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1728,11 +1732,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14926,6 +14930,104 @@
         <v>0</v>
       </c>
       <c r="AF135" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A136" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B136" s="18">
+        <v>1</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D136" s="18">
+        <v>2</v>
+      </c>
+      <c r="E136" s="18">
+        <v>0</v>
+      </c>
+      <c r="F136" s="18">
+        <v>7</v>
+      </c>
+      <c r="G136" s="18">
+        <v>14</v>
+      </c>
+      <c r="H136" s="18">
+        <v>2</v>
+      </c>
+      <c r="I136" s="18">
+        <v>2</v>
+      </c>
+      <c r="J136" s="18">
+        <v>0</v>
+      </c>
+      <c r="K136" s="18">
+        <v>0</v>
+      </c>
+      <c r="L136" s="18">
+        <v>0</v>
+      </c>
+      <c r="M136" s="18">
+        <v>8</v>
+      </c>
+      <c r="N136" s="18">
+        <v>4003</v>
+      </c>
+      <c r="O136" s="18">
+        <v>250</v>
+      </c>
+      <c r="P136" s="18">
+        <v>250</v>
+      </c>
+      <c r="Q136" s="18">
+        <v>0</v>
+      </c>
+      <c r="R136" s="18">
+        <v>3</v>
+      </c>
+      <c r="S136" s="18">
+        <v>10</v>
+      </c>
+      <c r="T136" s="18">
+        <v>25</v>
+      </c>
+      <c r="U136" s="18">
+        <v>25</v>
+      </c>
+      <c r="V136" s="18">
+        <v>0</v>
+      </c>
+      <c r="W136" s="18">
+        <v>0</v>
+      </c>
+      <c r="X136" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF136" s="18">
         <v>0</v>
       </c>
     </row>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B836BE05-116E-4272-B540-CA63FB88E5E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F3509E-D393-4CB0-B64A-E3FACBE1052F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,7 +878,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>B:模拟流程1</t>
+    <t>A:模拟流程2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B836BE05-116E-4272-B540-CA63FB88E5E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04976BAF-80B4-42BA-9515-98A97B998109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,7 +878,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>B:模拟流程1</t>
+    <t>B:模拟流程2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1733,7 +1734,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE3F43A-3E48-4F3E-84C7-55B7B806AF62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD4692-F5D8-44A8-A215-C7FA95A46895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="225">
   <si>
     <t>id,num</t>
   </si>
@@ -883,6 +883,10 @@
   </si>
   <si>
     <t>B:模拟流程2</t>
+  </si>
+  <si>
+    <t>A:模拟流程3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1733,11 +1737,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15127,6 +15131,104 @@
         <v>0</v>
       </c>
       <c r="AF137" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A138" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" s="18">
+        <v>1</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D138" s="18">
+        <v>2</v>
+      </c>
+      <c r="E138" s="18">
+        <v>0</v>
+      </c>
+      <c r="F138" s="18">
+        <v>7</v>
+      </c>
+      <c r="G138" s="18">
+        <v>14</v>
+      </c>
+      <c r="H138" s="18">
+        <v>2</v>
+      </c>
+      <c r="I138" s="18">
+        <v>2</v>
+      </c>
+      <c r="J138" s="18">
+        <v>0</v>
+      </c>
+      <c r="K138" s="18">
+        <v>0</v>
+      </c>
+      <c r="L138" s="18">
+        <v>0</v>
+      </c>
+      <c r="M138" s="18">
+        <v>8</v>
+      </c>
+      <c r="N138" s="18">
+        <v>4003</v>
+      </c>
+      <c r="O138" s="18">
+        <v>250</v>
+      </c>
+      <c r="P138" s="18">
+        <v>250</v>
+      </c>
+      <c r="Q138" s="18">
+        <v>0</v>
+      </c>
+      <c r="R138" s="18">
+        <v>3</v>
+      </c>
+      <c r="S138" s="18">
+        <v>10</v>
+      </c>
+      <c r="T138" s="18">
+        <v>25</v>
+      </c>
+      <c r="U138" s="18">
+        <v>25</v>
+      </c>
+      <c r="V138" s="18">
+        <v>0</v>
+      </c>
+      <c r="W138" s="18">
+        <v>0</v>
+      </c>
+      <c r="X138" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB138" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC138" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD138" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE138" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF138" s="18">
         <v>0</v>
       </c>
     </row>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD4692-F5D8-44A8-A215-C7FA95A46895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35852EFC-1FD1-45BB-914C-B89F432FA747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>reward_pro_5</t>
   </si>
   <si>
-    <t>大礼包-1</t>
-  </si>
-  <si>
     <t>选择大礼包-1</t>
   </si>
   <si>
@@ -886,6 +883,10 @@
   </si>
   <si>
     <t>A:模拟流程3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:流程1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1740,8 +1741,8 @@
   <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2206,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2304,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2402,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2500,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2598,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2696,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2794,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2892,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2990,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3088,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3186,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3284,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3382,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3480,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3578,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3676,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3774,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3872,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3970,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4068,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4166,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4264,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4362,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4460,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4558,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4656,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4754,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4852,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4950,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5048,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5146,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5244,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5342,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5440,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5538,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5636,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5734,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5832,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5930,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6028,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6126,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6224,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6322,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6420,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6518,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6616,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6714,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6812,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6910,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -7008,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7106,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7204,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7302,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7400,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7498,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7596,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7694,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7792,7 +7793,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7890,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7988,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8086,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8184,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8282,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8380,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8478,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8576,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8674,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8772,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8870,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8968,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9066,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9164,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9262,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9360,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9458,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9556,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9654,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9752,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9850,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9948,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10046,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10144,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10242,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10340,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10438,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10536,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10634,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10732,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10830,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10928,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11026,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11124,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11222,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11320,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11418,7 +11419,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11516,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11614,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11712,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11810,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11908,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -12006,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12104,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12202,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12300,7 +12301,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12398,7 +12399,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12496,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12594,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12692,7 +12693,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12790,7 +12791,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12888,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12986,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13084,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13182,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13280,7 +13281,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13378,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13476,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13574,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13672,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13770,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13868,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13966,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14064,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14162,7 +14163,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14260,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14358,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14456,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14554,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14652,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D133" s="18">
         <v>2</v>
@@ -14744,13 +14745,13 @@
     </row>
     <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B134" s="17">
         <v>1</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D134" s="18">
         <v>2</v>
@@ -14842,13 +14843,13 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A135" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B135" s="18">
         <v>1</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D135" s="18">
         <v>2</v>
@@ -14940,13 +14941,13 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A136" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B136" s="18">
         <v>1</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D136" s="18">
         <v>2</v>
@@ -15038,13 +15039,13 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A137" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B137" s="18">
         <v>1</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D137" s="18">
         <v>2</v>
@@ -15136,13 +15137,13 @@
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A138" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B138" s="18">
         <v>1</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D138" s="18">
         <v>2</v>
@@ -15379,125 +15380,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD4692-F5D8-44A8-A215-C7FA95A46895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8DC5C8-1BBA-4775-97A3-B28CC3DB452D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,9 +320,6 @@
     <t>大礼包-1</t>
   </si>
   <si>
-    <t>选择大礼包-1</t>
-  </si>
-  <si>
     <t>选择大礼包-2</t>
   </si>
   <si>
@@ -886,6 +883,10 @@
   </si>
   <si>
     <t>A:模拟流程3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B:模拟流程1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1740,8 +1741,8 @@
   <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2304,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2402,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2500,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2598,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2696,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2794,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2892,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2990,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3088,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3186,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3284,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3382,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3480,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3578,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3676,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3774,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3872,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3970,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4068,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4166,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4264,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4362,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4460,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4558,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4656,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4754,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4852,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4950,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5048,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5146,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5244,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5342,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5440,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5538,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5636,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5734,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5832,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5930,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6028,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6126,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6224,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6322,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6420,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6518,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6616,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6714,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6812,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6910,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -7008,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7106,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7204,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7302,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7400,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7498,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7596,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7694,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7792,7 +7793,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7890,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7988,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8086,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8184,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8282,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8380,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8478,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8576,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8674,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8772,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8870,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8968,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9066,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9164,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9262,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9360,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9458,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9556,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9654,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9752,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9850,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9948,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10046,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10144,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10242,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10340,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10438,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10536,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10634,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10732,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10830,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10928,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11026,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11124,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11222,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11320,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11418,7 +11419,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11516,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11614,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11712,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11810,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11908,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -12006,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12104,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12202,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12300,7 +12301,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12398,7 +12399,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12496,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12594,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12692,7 +12693,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12790,7 +12791,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12888,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12986,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13084,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13182,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13280,7 +13281,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13378,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13476,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13574,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13672,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13770,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13868,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13966,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14064,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14162,7 +14163,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14260,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14358,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14456,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14554,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14652,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D133" s="18">
         <v>2</v>
@@ -14744,13 +14745,13 @@
     </row>
     <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B134" s="17">
         <v>1</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D134" s="18">
         <v>2</v>
@@ -14842,13 +14843,13 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A135" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B135" s="18">
         <v>1</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D135" s="18">
         <v>2</v>
@@ -14940,13 +14941,13 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A136" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B136" s="18">
         <v>1</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D136" s="18">
         <v>2</v>
@@ -15038,13 +15039,13 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A137" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B137" s="18">
         <v>1</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D137" s="18">
         <v>2</v>
@@ -15136,13 +15137,13 @@
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A138" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B138" s="18">
         <v>1</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D138" s="18">
         <v>2</v>
@@ -15379,125 +15380,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90B45ED-9BB6-4C00-B93A-A324A36B685B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F878782-0CB5-465F-940D-6F0854980B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>reward_pro_5</t>
   </si>
   <si>
-    <t>选择大礼包-2</t>
-  </si>
-  <si>
     <t>嵌套测试礼包</t>
   </si>
   <si>
@@ -888,6 +885,10 @@
   </si>
   <si>
     <t>B:模拟流程1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择大礼包-2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1743,7 +1744,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2208,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2220,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -2306,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2404,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2502,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2600,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2698,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2796,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2894,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2992,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3090,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3188,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3286,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3384,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3482,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3580,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3678,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3776,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3874,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3972,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4070,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4168,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4266,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4364,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4462,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4560,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4658,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4756,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4854,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4952,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5050,7 +5051,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5148,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5246,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5344,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5442,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5540,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5638,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5736,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5834,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5932,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6030,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6128,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6226,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6324,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6422,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6520,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6618,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6716,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6814,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6912,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -7010,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7108,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7206,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7304,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7402,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7500,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7598,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7696,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7794,7 +7795,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7892,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7990,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8088,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8186,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8284,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8382,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8480,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8578,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8676,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8774,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8872,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8970,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9068,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9166,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9264,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9362,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9460,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9558,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9656,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9754,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9852,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9950,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10048,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10146,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10244,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10342,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10440,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10538,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10636,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10734,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10832,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10930,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11028,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11126,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11224,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11322,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11420,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11518,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11616,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11714,7 +11715,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11812,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11910,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -12008,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12106,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12204,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12302,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12400,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12498,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12596,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12694,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12792,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12890,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12988,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13086,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13184,7 +13185,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13282,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13380,7 +13381,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13478,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13576,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13674,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13772,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13870,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13968,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14066,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14164,7 +14165,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14262,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14360,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14458,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14556,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14654,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D133" s="18">
         <v>2</v>
@@ -14746,13 +14747,13 @@
     </row>
     <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B134" s="17">
         <v>1</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D134" s="18">
         <v>2</v>
@@ -14844,13 +14845,13 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A135" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B135" s="18">
         <v>1</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D135" s="18">
         <v>2</v>
@@ -14942,13 +14943,13 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A136" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B136" s="18">
         <v>1</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D136" s="18">
         <v>2</v>
@@ -15040,13 +15041,13 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A137" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B137" s="18">
         <v>1</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D137" s="18">
         <v>2</v>
@@ -15138,13 +15139,13 @@
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A138" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B138" s="18">
         <v>1</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D138" s="18">
         <v>2</v>
@@ -15381,125 +15382,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90B45ED-9BB6-4C00-B93A-A324A36B685B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E970E98B-291C-4F28-B8CF-8AC2338F0F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1741,9 +1741,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2241,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O6" s="11">
         <v>1</v>

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E970E98B-291C-4F28-B8CF-8AC2338F0F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573A425A-4B81-45DE-8961-578978306DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>reward_pro_5</t>
   </si>
   <si>
-    <t>选择大礼包-2</t>
-  </si>
-  <si>
     <t>嵌套测试礼包</t>
   </si>
   <si>
@@ -888,6 +885,10 @@
   </si>
   <si>
     <t>B:模拟流程1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择大礼包-2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1741,9 +1742,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2208,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2220,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -2306,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2404,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2502,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2600,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2698,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2796,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2894,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2992,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3090,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3188,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3286,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3384,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3482,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3580,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3678,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3776,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3874,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3972,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4070,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4168,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4266,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4364,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4462,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4560,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4658,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4756,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4854,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4952,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5050,7 +5051,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5148,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5246,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5344,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5442,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5540,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5638,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5736,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5834,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5932,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6030,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6128,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6226,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6324,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6422,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6520,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6618,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6716,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6814,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6912,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -7010,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7108,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7206,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7304,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7402,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7500,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7598,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7696,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7794,7 +7795,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7892,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7990,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8088,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8186,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8284,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8382,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8480,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8578,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8676,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8774,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8872,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8970,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9068,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9166,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9264,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9362,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9460,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9558,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9656,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9754,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9852,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9950,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10048,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10146,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10244,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10342,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10440,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10538,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10636,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10734,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10832,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10930,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11028,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11126,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11224,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11322,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11420,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11518,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11616,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11714,7 +11715,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11812,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11910,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -12008,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12106,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12204,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12302,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12400,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12498,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12596,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12694,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12792,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12890,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12988,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13086,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13184,7 +13185,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13282,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13380,7 +13381,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13478,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13576,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13674,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13772,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13870,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13968,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14066,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14164,7 +14165,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14262,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14360,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14458,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14556,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14654,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D133" s="18">
         <v>2</v>
@@ -14746,13 +14747,13 @@
     </row>
     <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B134" s="17">
         <v>1</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D134" s="18">
         <v>2</v>
@@ -14844,13 +14845,13 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A135" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B135" s="18">
         <v>1</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D135" s="18">
         <v>2</v>
@@ -14942,13 +14943,13 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A136" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B136" s="18">
         <v>1</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D136" s="18">
         <v>2</v>
@@ -15040,13 +15041,13 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A137" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B137" s="18">
         <v>1</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D137" s="18">
         <v>2</v>
@@ -15138,13 +15139,13 @@
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A138" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B138" s="18">
         <v>1</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D138" s="18">
         <v>2</v>
@@ -15381,125 +15382,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573A425A-4B81-45DE-8961-578978306DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
   <si>
     <t>id,num</t>
   </si>
@@ -317,6 +317,15 @@
     <t>reward_pro_5</t>
   </si>
   <si>
+    <t>大礼包-1</t>
+  </si>
+  <si>
+    <t>选择大礼包-1</t>
+  </si>
+  <si>
+    <t>选择大礼包-2</t>
+  </si>
+  <si>
     <t>嵌套测试礼包</t>
   </si>
   <si>
@@ -579,6 +588,15 @@
   </si>
   <si>
     <t>副本2-3关卡宝箱</t>
+  </si>
+  <si>
+    <t>1号塔1层宝箱</t>
+  </si>
+  <si>
+    <t>1号塔2层宝箱</t>
+  </si>
+  <si>
+    <t>1号塔3层宝箱</t>
   </si>
   <si>
     <t>1号塔4层宝箱</t>
@@ -852,43 +870,6 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>模拟流程1</t>
-  </si>
-  <si>
-    <t>模拟流程1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:模拟流程2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B:模拟流程2</t>
-  </si>
-  <si>
-    <t>A:模拟流程3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:流程1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B:模拟流程1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择大礼包-2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1740,11 +1721,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2209,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2221,28 +2202,28 @@
         <v>3</v>
       </c>
       <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>3</v>
+      </c>
+      <c r="N6" s="11">
         <v>6</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>3</v>
-      </c>
-      <c r="N6" s="11">
-        <v>8</v>
       </c>
       <c r="O6" s="11">
         <v>1</v>
@@ -2307,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2405,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2503,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2601,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2699,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2797,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2895,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2993,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3091,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3189,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3287,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3385,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3483,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3581,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3679,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3777,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3875,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3973,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4071,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4169,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4267,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4365,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4463,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4561,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4659,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4757,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4855,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4953,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5051,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5149,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5247,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5345,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5443,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5541,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5639,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5737,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5835,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5933,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6031,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6129,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6227,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6325,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6423,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6521,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6619,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6717,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6815,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6913,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -7011,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7109,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7207,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7305,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7403,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7501,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7599,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7697,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7795,7 +7776,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7893,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7991,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8089,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8187,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8285,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8383,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8481,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8579,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8677,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8775,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8873,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8971,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9069,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9167,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9265,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9363,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9461,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9559,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9657,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9755,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9853,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9951,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10049,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10147,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10245,7 +10226,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10343,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10441,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10539,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10637,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10735,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10833,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10931,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11029,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11127,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11225,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11323,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11421,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11519,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11617,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11715,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11813,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11911,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -12009,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12107,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12205,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12303,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12401,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12499,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12597,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12695,7 +12676,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12793,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12885,13 +12866,13 @@
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A115" s="18">
-        <v>432141</v>
+        <v>101001</v>
       </c>
       <c r="B115" s="18">
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12983,13 +12964,13 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A116" s="18">
-        <v>4321</v>
+        <v>101002</v>
       </c>
       <c r="B116" s="18">
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13081,13 +13062,13 @@
     </row>
     <row r="117" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="18">
-        <v>4312</v>
+        <v>101003</v>
       </c>
       <c r="B117" s="18">
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13179,13 +13160,13 @@
     </row>
     <row r="118" spans="1:32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
-        <v>4321</v>
+        <v>101004</v>
       </c>
       <c r="B118" s="18">
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13277,13 +13258,13 @@
     </row>
     <row r="119" spans="1:32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
-        <v>1010432105</v>
+        <v>101005</v>
       </c>
       <c r="B119" s="18">
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13375,13 +13356,13 @@
     </row>
     <row r="120" spans="1:32" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
-        <v>1010432106</v>
+        <v>101006</v>
       </c>
       <c r="B120" s="18">
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13479,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13577,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13595,7 +13576,7 @@
         <v>300</v>
       </c>
       <c r="I122" s="14">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J122" s="14">
         <v>0</v>
@@ -13675,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13773,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13871,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13969,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14067,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14165,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14263,7 +14244,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14361,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14459,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14557,7 +14538,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14644,594 +14625,6 @@
         <v>0</v>
       </c>
       <c r="AF132" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:32" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="17">
-        <v>110007</v>
-      </c>
-      <c r="B133" s="17">
-        <v>1</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D133" s="18">
-        <v>2</v>
-      </c>
-      <c r="E133" s="18">
-        <v>0</v>
-      </c>
-      <c r="F133" s="17">
-        <v>7</v>
-      </c>
-      <c r="G133" s="18">
-        <v>14</v>
-      </c>
-      <c r="H133" s="33">
-        <v>6</v>
-      </c>
-      <c r="I133" s="33">
-        <v>6</v>
-      </c>
-      <c r="J133" s="17">
-        <v>0</v>
-      </c>
-      <c r="K133" s="17">
-        <v>0</v>
-      </c>
-      <c r="L133" s="17">
-        <v>0</v>
-      </c>
-      <c r="M133" s="18">
-        <v>8</v>
-      </c>
-      <c r="N133" s="35">
-        <v>4003</v>
-      </c>
-      <c r="O133" s="33">
-        <v>250</v>
-      </c>
-      <c r="P133" s="33">
-        <v>250</v>
-      </c>
-      <c r="Q133" s="17">
-        <v>0</v>
-      </c>
-      <c r="R133" s="17">
-        <v>3</v>
-      </c>
-      <c r="S133" s="17">
-        <v>10</v>
-      </c>
-      <c r="T133" s="33">
-        <v>25</v>
-      </c>
-      <c r="U133" s="33">
-        <v>25</v>
-      </c>
-      <c r="V133" s="17">
-        <v>0</v>
-      </c>
-      <c r="W133" s="17">
-        <v>0</v>
-      </c>
-      <c r="X133" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y133" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z133" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA133" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB133" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC133" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD133" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE133" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF133" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:32" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B134" s="17">
-        <v>1</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D134" s="18">
-        <v>2</v>
-      </c>
-      <c r="E134" s="18">
-        <v>0</v>
-      </c>
-      <c r="F134" s="17">
-        <v>7</v>
-      </c>
-      <c r="G134" s="18">
-        <v>14</v>
-      </c>
-      <c r="H134" s="33">
-        <v>2</v>
-      </c>
-      <c r="I134" s="33">
-        <v>2</v>
-      </c>
-      <c r="J134" s="17">
-        <v>0</v>
-      </c>
-      <c r="K134" s="17">
-        <v>0</v>
-      </c>
-      <c r="L134" s="17">
-        <v>0</v>
-      </c>
-      <c r="M134" s="18">
-        <v>8</v>
-      </c>
-      <c r="N134" s="35">
-        <v>4003</v>
-      </c>
-      <c r="O134" s="33">
-        <v>250</v>
-      </c>
-      <c r="P134" s="33">
-        <v>250</v>
-      </c>
-      <c r="Q134" s="17">
-        <v>0</v>
-      </c>
-      <c r="R134" s="17">
-        <v>3</v>
-      </c>
-      <c r="S134" s="17">
-        <v>10</v>
-      </c>
-      <c r="T134" s="33">
-        <v>25</v>
-      </c>
-      <c r="U134" s="33">
-        <v>25</v>
-      </c>
-      <c r="V134" s="17">
-        <v>0</v>
-      </c>
-      <c r="W134" s="17">
-        <v>0</v>
-      </c>
-      <c r="X134" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y134" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z134" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA134" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB134" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC134" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD134" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE134" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF134" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A135" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B135" s="18">
-        <v>1</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D135" s="18">
-        <v>2</v>
-      </c>
-      <c r="E135" s="18">
-        <v>0</v>
-      </c>
-      <c r="F135" s="18">
-        <v>7</v>
-      </c>
-      <c r="G135" s="18">
-        <v>14</v>
-      </c>
-      <c r="H135" s="18">
-        <v>2</v>
-      </c>
-      <c r="I135" s="18">
-        <v>2</v>
-      </c>
-      <c r="J135" s="18">
-        <v>0</v>
-      </c>
-      <c r="K135" s="18">
-        <v>0</v>
-      </c>
-      <c r="L135" s="18">
-        <v>0</v>
-      </c>
-      <c r="M135" s="18">
-        <v>8</v>
-      </c>
-      <c r="N135" s="18">
-        <v>4003</v>
-      </c>
-      <c r="O135" s="18">
-        <v>250</v>
-      </c>
-      <c r="P135" s="18">
-        <v>250</v>
-      </c>
-      <c r="Q135" s="18">
-        <v>0</v>
-      </c>
-      <c r="R135" s="18">
-        <v>3</v>
-      </c>
-      <c r="S135" s="18">
-        <v>10</v>
-      </c>
-      <c r="T135" s="18">
-        <v>25</v>
-      </c>
-      <c r="U135" s="18">
-        <v>25</v>
-      </c>
-      <c r="V135" s="18">
-        <v>0</v>
-      </c>
-      <c r="W135" s="18">
-        <v>0</v>
-      </c>
-      <c r="X135" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y135" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z135" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA135" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB135" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC135" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD135" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE135" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF135" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A136" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B136" s="18">
-        <v>1</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D136" s="18">
-        <v>2</v>
-      </c>
-      <c r="E136" s="18">
-        <v>0</v>
-      </c>
-      <c r="F136" s="18">
-        <v>7</v>
-      </c>
-      <c r="G136" s="18">
-        <v>14</v>
-      </c>
-      <c r="H136" s="18">
-        <v>2</v>
-      </c>
-      <c r="I136" s="18">
-        <v>2</v>
-      </c>
-      <c r="J136" s="18">
-        <v>0</v>
-      </c>
-      <c r="K136" s="18">
-        <v>0</v>
-      </c>
-      <c r="L136" s="18">
-        <v>0</v>
-      </c>
-      <c r="M136" s="18">
-        <v>8</v>
-      </c>
-      <c r="N136" s="18">
-        <v>4003</v>
-      </c>
-      <c r="O136" s="18">
-        <v>250</v>
-      </c>
-      <c r="P136" s="18">
-        <v>250</v>
-      </c>
-      <c r="Q136" s="18">
-        <v>0</v>
-      </c>
-      <c r="R136" s="18">
-        <v>3</v>
-      </c>
-      <c r="S136" s="18">
-        <v>10</v>
-      </c>
-      <c r="T136" s="18">
-        <v>25</v>
-      </c>
-      <c r="U136" s="18">
-        <v>25</v>
-      </c>
-      <c r="V136" s="18">
-        <v>0</v>
-      </c>
-      <c r="W136" s="18">
-        <v>0</v>
-      </c>
-      <c r="X136" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y136" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z136" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA136" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB136" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC136" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD136" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE136" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF136" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A137" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B137" s="18">
-        <v>1</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D137" s="18">
-        <v>2</v>
-      </c>
-      <c r="E137" s="18">
-        <v>0</v>
-      </c>
-      <c r="F137" s="18">
-        <v>7</v>
-      </c>
-      <c r="G137" s="18">
-        <v>14</v>
-      </c>
-      <c r="H137" s="18">
-        <v>2</v>
-      </c>
-      <c r="I137" s="18">
-        <v>2</v>
-      </c>
-      <c r="J137" s="18">
-        <v>0</v>
-      </c>
-      <c r="K137" s="18">
-        <v>0</v>
-      </c>
-      <c r="L137" s="18">
-        <v>0</v>
-      </c>
-      <c r="M137" s="18">
-        <v>8</v>
-      </c>
-      <c r="N137" s="18">
-        <v>4003</v>
-      </c>
-      <c r="O137" s="18">
-        <v>250</v>
-      </c>
-      <c r="P137" s="18">
-        <v>250</v>
-      </c>
-      <c r="Q137" s="18">
-        <v>0</v>
-      </c>
-      <c r="R137" s="18">
-        <v>3</v>
-      </c>
-      <c r="S137" s="18">
-        <v>10</v>
-      </c>
-      <c r="T137" s="18">
-        <v>25</v>
-      </c>
-      <c r="U137" s="18">
-        <v>25</v>
-      </c>
-      <c r="V137" s="18">
-        <v>0</v>
-      </c>
-      <c r="W137" s="18">
-        <v>0</v>
-      </c>
-      <c r="X137" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y137" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z137" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA137" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB137" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC137" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD137" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE137" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF137" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A138" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B138" s="18">
-        <v>1</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D138" s="18">
-        <v>2</v>
-      </c>
-      <c r="E138" s="18">
-        <v>0</v>
-      </c>
-      <c r="F138" s="18">
-        <v>7</v>
-      </c>
-      <c r="G138" s="18">
-        <v>14</v>
-      </c>
-      <c r="H138" s="18">
-        <v>2</v>
-      </c>
-      <c r="I138" s="18">
-        <v>2</v>
-      </c>
-      <c r="J138" s="18">
-        <v>0</v>
-      </c>
-      <c r="K138" s="18">
-        <v>0</v>
-      </c>
-      <c r="L138" s="18">
-        <v>0</v>
-      </c>
-      <c r="M138" s="18">
-        <v>8</v>
-      </c>
-      <c r="N138" s="18">
-        <v>4003</v>
-      </c>
-      <c r="O138" s="18">
-        <v>250</v>
-      </c>
-      <c r="P138" s="18">
-        <v>250</v>
-      </c>
-      <c r="Q138" s="18">
-        <v>0</v>
-      </c>
-      <c r="R138" s="18">
-        <v>3</v>
-      </c>
-      <c r="S138" s="18">
-        <v>10</v>
-      </c>
-      <c r="T138" s="18">
-        <v>25</v>
-      </c>
-      <c r="U138" s="18">
-        <v>25</v>
-      </c>
-      <c r="V138" s="18">
-        <v>0</v>
-      </c>
-      <c r="W138" s="18">
-        <v>0</v>
-      </c>
-      <c r="X138" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y138" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z138" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA138" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB138" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC138" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD138" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE138" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF138" s="18">
         <v>0</v>
       </c>
     </row>
@@ -15382,125 +14775,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4280B0BD-940D-4938-B2C9-1384715CD9E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
   <si>
     <t>id,num</t>
   </si>
@@ -315,15 +315,6 @@
   </si>
   <si>
     <t>reward_pro_5</t>
-  </si>
-  <si>
-    <t>大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-2</t>
   </si>
   <si>
     <t>嵌套测试礼包</t>
@@ -870,6 +861,10 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:测试1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1724,8 +1719,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2190,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2288,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2386,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2484,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2582,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2680,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2778,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2876,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2974,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3072,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3170,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3268,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3366,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3464,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3562,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3660,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3758,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3856,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3954,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4052,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4150,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4248,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4346,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4444,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4542,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4640,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4738,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4836,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4934,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5032,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5130,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5228,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5326,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5424,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5522,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5620,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5718,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5816,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5914,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6012,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6110,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6208,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6306,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6404,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6502,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6600,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6698,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6796,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6894,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6992,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7090,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7188,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7286,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7384,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7482,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7580,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7678,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7776,7 +7771,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7874,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7972,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8070,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8168,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8266,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8364,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8462,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8560,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8658,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8756,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8854,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8952,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9050,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9148,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9246,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9344,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9442,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9540,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9638,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9736,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9834,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9932,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10030,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10128,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10226,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10324,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10422,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10520,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10618,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10716,7 +10711,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10814,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10912,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11010,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11108,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11206,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11304,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11402,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11500,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11598,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11696,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11794,7 +11789,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11892,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11990,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12088,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12186,7 +12181,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12284,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12382,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12480,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12578,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12676,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12774,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12872,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12970,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13068,7 +13063,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13166,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13264,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13362,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13460,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13558,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13656,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13754,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13852,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13950,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14048,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14146,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14244,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14342,7 +14337,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14440,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14538,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14742,7 +14737,7 @@
       <formula>NOT(ISERROR(SEARCH("Both",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:AF4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Both,Client,Server,Excluded"</formula1>
     </dataValidation>
@@ -14775,125 +14770,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE23105-AD31-4DFF-9090-AF9B384D807C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="220">
   <si>
     <t>id,num</t>
   </si>
@@ -321,15 +321,6 @@
   </si>
   <si>
     <t>选择大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-2</t>
-  </si>
-  <si>
-    <t>嵌套测试礼包</t>
-  </si>
-  <si>
-    <t>嵌套测试礼包-1</t>
   </si>
   <si>
     <t>嵌套测试礼包-2</t>
@@ -870,6 +861,13 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B:测试2</t>
+  </si>
+  <si>
+    <t>B:测试2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1724,8 +1722,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2386,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="D8" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" s="18">
         <v>10000</v>
@@ -2484,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2582,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2680,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2778,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2876,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2974,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3072,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3170,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3268,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3366,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3464,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3562,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3660,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3758,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3856,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3954,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4052,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4150,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4248,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4346,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4444,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4542,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4640,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4738,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4836,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4934,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5032,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5130,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5228,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5326,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5424,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5522,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5620,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5718,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5816,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5914,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6012,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6110,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6208,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6306,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6404,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6502,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6600,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6698,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6796,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6894,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6992,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7090,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7188,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7286,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7384,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7482,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7580,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7678,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7776,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7874,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7972,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8070,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8168,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8266,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8364,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8462,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8560,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8658,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8756,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8854,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8952,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9050,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9148,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9246,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9344,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9442,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9540,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9638,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9736,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9834,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9932,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10030,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10128,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10226,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10324,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10422,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10520,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10618,7 +10616,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10716,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10814,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10912,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11010,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11108,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11206,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11304,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11402,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11500,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11598,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11696,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11794,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11892,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11990,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12088,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12186,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12284,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12382,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12480,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12578,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12676,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12774,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12872,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12970,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13068,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13166,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13264,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13362,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13460,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13558,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13656,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13754,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13852,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13950,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14048,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14146,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14244,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14342,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14440,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14538,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14775,125 +14773,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE23105-AD31-4DFF-9090-AF9B384D807C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
   <si>
     <t>id,num</t>
   </si>
@@ -321,6 +321,15 @@
   </si>
   <si>
     <t>选择大礼包-1</t>
+  </si>
+  <si>
+    <t>选择大礼包-2</t>
+  </si>
+  <si>
+    <t>嵌套测试礼包</t>
+  </si>
+  <si>
+    <t>嵌套测试礼包-1</t>
   </si>
   <si>
     <t>嵌套测试礼包-2</t>
@@ -861,13 +870,6 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B:测试2</t>
-  </si>
-  <si>
-    <t>B:测试2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1722,8 +1724,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2384,10 +2386,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" s="18">
         <v>10000</v>
@@ -2482,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2580,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2678,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2776,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2874,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2972,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3070,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3168,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3266,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3364,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3462,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3560,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3658,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3756,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3854,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3952,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4050,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4148,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4246,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4344,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4442,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4540,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4638,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4736,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4834,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4932,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5030,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5128,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5226,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5324,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5422,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5520,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5618,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5716,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5814,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5912,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6010,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6108,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6206,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6304,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6402,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6500,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6598,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6696,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6794,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6892,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6990,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7088,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7186,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7284,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7382,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7480,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7578,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7676,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7774,7 +7776,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7872,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7970,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8068,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8166,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8264,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8362,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8460,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8558,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8656,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8754,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8852,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8950,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9048,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9146,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9244,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9342,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9440,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9538,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9636,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9734,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9832,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9930,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10028,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10126,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10224,7 +10226,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10322,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10420,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10518,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10616,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10714,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10812,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10910,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11008,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11106,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11204,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11302,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11400,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11498,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11596,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11694,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11792,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11890,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11988,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12086,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12184,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12282,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12380,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12478,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12576,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12674,7 +12676,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12772,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12870,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12968,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13066,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13164,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13262,7 +13264,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13360,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13458,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13556,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13654,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13752,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13850,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13948,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14046,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14144,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14242,7 +14244,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14340,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14438,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14536,7 +14538,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14773,125 +14775,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A11C3F-2C2B-4C1E-BD20-B3812DB51353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
   <si>
     <t>id,num</t>
   </si>
@@ -315,15 +315,6 @@
   </si>
   <si>
     <t>reward_pro_5</t>
-  </si>
-  <si>
-    <t>大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-2</t>
   </si>
   <si>
     <t>嵌套测试礼包</t>
@@ -871,6 +862,9 @@
   <si>
     <t>舞会藏宝图宝箱</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:测试1</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1718,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2190,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2288,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2386,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2484,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2582,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2680,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2778,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2876,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2974,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3072,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3170,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3268,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3366,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3464,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3562,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3660,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3758,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3856,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3954,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4052,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4150,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4248,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4346,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4444,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4542,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4640,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4738,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4836,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4934,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5032,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5130,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5228,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5326,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5424,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5522,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5620,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5718,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5816,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5914,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6012,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6110,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6208,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6306,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6404,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6502,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6600,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6698,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6796,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6894,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6992,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7090,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7188,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7286,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7384,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7482,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7580,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7678,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7776,7 +7770,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7874,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7972,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8070,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8168,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8266,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8364,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8462,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8560,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8658,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8756,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8854,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8952,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9050,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9148,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9246,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9344,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9442,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9540,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9638,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9736,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9834,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9932,7 +9926,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10030,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10128,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10226,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10324,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10422,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10520,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10618,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10716,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10814,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10912,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11010,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11108,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11206,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11304,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11402,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11500,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11598,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11696,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11794,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11892,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11990,7 +11984,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12088,7 +12082,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12186,7 +12180,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12284,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12382,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12480,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12578,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12676,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12774,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12872,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12970,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13068,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13166,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13264,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13362,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13460,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13558,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13656,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13754,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13852,7 +13846,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13950,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14048,7 +14042,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14146,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14244,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14342,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14440,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14538,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14775,125 +14769,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248C3794-9482-40DA-9A1E-5169C61C2123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="220">
   <si>
     <t>id,num</t>
   </si>
@@ -321,15 +321,6 @@
   </si>
   <si>
     <t>选择大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-2</t>
-  </si>
-  <si>
-    <t>嵌套测试礼包</t>
-  </si>
-  <si>
-    <t>嵌套测试礼包-1</t>
   </si>
   <si>
     <t>嵌套测试礼包-2</t>
@@ -870,6 +861,13 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B测试2</t>
+  </si>
+  <si>
+    <t>B测试2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1724,8 +1722,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2386,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="D8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="18">
         <v>10000</v>
@@ -2484,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2582,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2680,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2778,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2876,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2974,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3072,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3170,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3268,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3366,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3464,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3562,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3660,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3758,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3856,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3954,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4052,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4150,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4248,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4346,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4444,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4542,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4640,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4738,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4836,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4934,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5032,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5130,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5228,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5326,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5424,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5522,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5620,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5718,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5816,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5914,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6012,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6110,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6208,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6306,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6404,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6502,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6600,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6698,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6796,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6894,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6992,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7090,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7188,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7286,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7384,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7482,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7580,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7678,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7776,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7874,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7972,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8070,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8168,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8266,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8364,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8462,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8560,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8658,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8756,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8854,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8952,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9050,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9148,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9246,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9344,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9442,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9540,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9638,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9736,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9834,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9932,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10030,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10128,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10226,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10324,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10422,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10520,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10618,7 +10616,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10716,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10814,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10912,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11010,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11108,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11206,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11304,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11402,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11500,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11598,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11696,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11794,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11892,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11990,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12088,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12186,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12284,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12382,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12480,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12578,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12676,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12774,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12872,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12970,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13068,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13166,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13264,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13362,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13460,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13558,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13656,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13754,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13852,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13950,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14048,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14146,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14244,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14342,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14440,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14538,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14775,125 +14773,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3B2E48-AD9A-44A6-A701-2AD9FF9C1C7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE23105-AD31-4DFF-9090-AF9B384D807C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="220">
   <si>
     <t>id,num</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>reward_pro_5</t>
+  </si>
+  <si>
+    <t>大礼包-1</t>
+  </si>
+  <si>
+    <t>选择大礼包-1</t>
   </si>
   <si>
     <t>嵌套测试礼包-2</t>
@@ -858,10 +864,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>A:测试1</t>
-  </si>
-  <si>
-    <t>B测试2</t>
+    <t>B:测试2</t>
+  </si>
+  <si>
+    <t>B:测试2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1716,7 +1723,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2181,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2279,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2377,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D8" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" s="18">
         <v>10000</v>
@@ -2475,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2573,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2671,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2769,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2867,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2965,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3063,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3161,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3259,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3357,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3455,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3553,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3651,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3749,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3847,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3945,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4043,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4141,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4239,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4337,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4435,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4533,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4631,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4729,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4827,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4925,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5023,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5121,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5219,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5317,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5415,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5513,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5611,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5709,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5807,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5905,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6003,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6101,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6199,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6297,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6395,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6493,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6591,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6689,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6787,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6885,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6983,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7081,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7179,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7277,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7375,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7473,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7571,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7669,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7767,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7865,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7963,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8061,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8159,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8257,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8355,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8453,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8551,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8649,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8747,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8845,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8943,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9041,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9139,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9237,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9335,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9433,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9531,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9629,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9727,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9825,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9923,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10021,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10119,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10217,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10315,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10413,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10511,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10609,7 +10616,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10707,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10805,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10903,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11001,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11099,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11197,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11295,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11393,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11491,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11589,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11687,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11785,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11883,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11981,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12079,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12177,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12275,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12373,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12471,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12569,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12667,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12765,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12863,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12961,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13059,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13157,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13255,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13353,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13451,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13549,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13647,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13745,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13843,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13941,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14039,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14137,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14235,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14333,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14431,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14529,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14766,125 +14773,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE23105-AD31-4DFF-9090-AF9B384D807C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1942C-7E74-46B0-BC4B-0066F032013C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
   <si>
     <t>id,num</t>
   </si>
@@ -315,12 +315,6 @@
   </si>
   <si>
     <t>reward_pro_5</t>
-  </si>
-  <si>
-    <t>大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-1</t>
   </si>
   <si>
     <t>嵌套测试礼包-2</t>
@@ -867,7 +861,10 @@
     <t>B:测试2</t>
   </si>
   <si>
-    <t>B:测试2</t>
+    <t>A:测试1</t>
+  </si>
+  <si>
+    <t>A:测试1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2188,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2286,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2384,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="18">
         <v>6</v>
@@ -2482,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2580,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2678,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2776,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2874,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2972,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3070,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3168,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3266,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3364,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3462,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3560,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3658,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3756,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3854,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3952,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4050,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4148,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4246,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4344,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4442,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4540,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4638,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4736,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4834,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4932,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5030,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5128,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5226,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5324,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5422,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5520,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5618,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5716,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5814,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5912,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6010,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6108,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6206,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6304,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6402,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6500,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6598,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6696,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6794,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6892,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6990,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7088,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7186,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7284,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7382,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7480,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7578,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7676,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7774,7 +7771,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7872,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7970,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8068,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8166,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8264,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8362,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8460,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8558,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8656,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8754,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8852,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8950,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9048,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9146,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9244,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9342,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9440,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9538,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9636,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9734,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9832,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9930,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10028,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10126,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10224,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10322,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10420,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10518,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10616,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10714,7 +10711,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10812,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10910,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11008,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11106,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11204,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11302,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11400,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11498,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11596,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11694,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11792,7 +11789,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11890,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11988,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12086,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12184,7 +12181,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12282,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12380,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12478,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12576,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12674,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12772,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12870,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12968,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13066,7 +13063,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13164,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13262,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13360,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13458,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13556,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13654,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13752,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13850,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13948,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14046,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14144,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14242,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14340,7 +14337,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14438,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14536,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14773,125 +14770,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1942C-7E74-46B0-BC4B-0066F032013C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
   <si>
     <t>id,num</t>
   </si>
@@ -315,6 +315,21 @@
   </si>
   <si>
     <t>reward_pro_5</t>
+  </si>
+  <si>
+    <t>大礼包-1</t>
+  </si>
+  <si>
+    <t>选择大礼包-1</t>
+  </si>
+  <si>
+    <t>选择大礼包-2</t>
+  </si>
+  <si>
+    <t>嵌套测试礼包</t>
+  </si>
+  <si>
+    <t>嵌套测试礼包-1</t>
   </si>
   <si>
     <t>嵌套测试礼包-2</t>
@@ -855,16 +870,6 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B:测试2</t>
-  </si>
-  <si>
-    <t>A:测试1</t>
-  </si>
-  <si>
-    <t>A:测试1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1719,8 +1724,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2185,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2283,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2381,10 +2386,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" s="18">
         <v>10000</v>
@@ -2479,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2577,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2675,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2773,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2871,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2969,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3067,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3165,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3263,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3361,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3459,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3557,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3655,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3753,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3851,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3949,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4047,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4145,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4243,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4341,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4439,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4537,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4635,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4733,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4831,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4929,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5027,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5125,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5223,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5321,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5419,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5517,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5615,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5713,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5811,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5909,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6007,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6105,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6203,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6301,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6399,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6497,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6595,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6693,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6791,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6889,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6987,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7085,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7183,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7281,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7379,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7477,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7575,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7673,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7771,7 +7776,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7869,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7967,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8065,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8163,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8261,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8359,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8457,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8555,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8653,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8751,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8849,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8947,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9045,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9143,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9241,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9339,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9437,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9535,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9633,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9731,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9829,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9927,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10025,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10123,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10221,7 +10226,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10319,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10417,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10515,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10613,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10711,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10809,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10907,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11005,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11103,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11201,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11299,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11397,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11495,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11593,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11691,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11789,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11887,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11985,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12083,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12181,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12279,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12377,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12475,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12573,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12671,7 +12676,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12769,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12867,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12965,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13063,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13161,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13259,7 +13264,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13357,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13455,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13553,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13651,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13749,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13847,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13945,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14043,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14141,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14239,7 +14244,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14337,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14435,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14533,7 +14538,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14770,125 +14775,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5125985-024D-4497-BCAB-AEF0A4048AEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="220">
   <si>
     <t>id,num</t>
   </si>
@@ -315,15 +315,6 @@
   </si>
   <si>
     <t>reward_pro_5</t>
-  </si>
-  <si>
-    <t>大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-2</t>
   </si>
   <si>
     <t>嵌套测试礼包</t>
@@ -870,6 +861,13 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:测试1</t>
+  </si>
+  <si>
+    <t>A:测试1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1724,8 +1722,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2190,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2288,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2386,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2484,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2582,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2680,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2778,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2876,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2974,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3072,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3170,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3268,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3366,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3464,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3562,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3660,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3758,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3856,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3954,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4052,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4150,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4248,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4346,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4444,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4542,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4640,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4738,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4836,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4934,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5032,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5130,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5228,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5326,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5424,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5522,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5620,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5718,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5816,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5914,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6012,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6110,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6208,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6306,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6404,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6502,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6600,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6698,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6796,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6894,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6992,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7090,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7188,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7286,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7384,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7482,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7580,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7678,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7776,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7874,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7972,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8070,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8168,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8266,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8364,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8462,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8560,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8658,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8756,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8854,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8952,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9050,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9148,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9246,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9344,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9442,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9540,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9638,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9736,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9834,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9932,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10030,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10128,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10226,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10324,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10422,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10520,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10618,7 +10616,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10716,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10814,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10912,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11010,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11108,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11206,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11304,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11402,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11500,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11598,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11696,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11794,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11892,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11990,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12088,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12186,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12284,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12382,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12480,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12578,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12676,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12774,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12872,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12970,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13068,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13166,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13264,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13362,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13460,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13558,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13656,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13754,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13852,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13950,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14048,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14146,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14244,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14342,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14440,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14538,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14775,125 +14773,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E8242-1721-4374-A934-16F307B3AABA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
   <si>
     <t>id,num</t>
   </si>
@@ -321,15 +321,6 @@
   </si>
   <si>
     <t>选择大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-2</t>
-  </si>
-  <si>
-    <t>嵌套测试礼包</t>
-  </si>
-  <si>
-    <t>嵌套测试礼包-1</t>
   </si>
   <si>
     <t>嵌套测试礼包-2</t>
@@ -871,6 +862,9 @@
   <si>
     <t>舞会藏宝图宝箱</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B:测试2</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1718,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2386,10 +2380,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="D8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="18">
         <v>10000</v>
@@ -2484,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2582,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2680,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2778,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2876,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2974,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3072,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3170,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3268,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3366,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3464,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3562,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3660,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3758,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3856,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3954,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4052,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4150,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4248,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4346,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4444,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4542,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4640,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4738,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4836,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4934,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5032,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5130,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5228,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5326,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5424,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5522,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5620,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5718,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5816,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5914,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6012,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6110,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6208,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6306,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6404,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6502,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6600,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6698,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6796,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6894,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6992,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7090,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7188,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7286,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7384,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7482,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7580,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7678,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7776,7 +7770,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7874,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7972,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8070,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8168,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8266,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8364,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8462,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8560,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8658,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8756,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8854,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8952,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9050,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9148,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9246,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9344,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9442,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9540,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9638,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9736,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9834,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9932,7 +9926,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10030,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10128,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10226,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10324,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10422,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10520,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10618,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10716,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10814,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10912,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11010,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11108,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11206,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11304,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11402,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11500,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11598,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11696,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11794,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11892,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11990,7 +11984,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12088,7 +12082,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12186,7 +12180,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12284,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12382,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12480,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12578,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12676,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12774,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12872,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12970,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13068,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13166,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13264,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13362,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13460,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13558,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13656,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13754,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13852,7 +13846,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13950,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14048,7 +14042,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14146,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14244,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14342,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14440,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14538,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14775,125 +14769,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-B\1019_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32416DD4-5115-469A-A73C-7265A878E62B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
   <si>
     <t>id,num</t>
   </si>
@@ -315,6 +315,21 @@
   </si>
   <si>
     <t>reward_pro_5</t>
+  </si>
+  <si>
+    <t>大礼包-1</t>
+  </si>
+  <si>
+    <t>选择大礼包-1</t>
+  </si>
+  <si>
+    <t>选择大礼包-2</t>
+  </si>
+  <si>
+    <t>嵌套测试礼包</t>
+  </si>
+  <si>
+    <t>嵌套测试礼包-1</t>
   </si>
   <si>
     <t>嵌套测试礼包-2</t>
@@ -856,16 +871,6 @@
   <si>
     <t>舞会藏宝图宝箱</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:测试1</t>
-  </si>
-  <si>
-    <t>A:测试1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B:测试2</t>
   </si>
 </sst>
 </file>
@@ -1719,8 +1724,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2185,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2283,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2381,10 +2386,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="18">
         <v>10000</v>
@@ -2479,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2577,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2675,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2773,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2871,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2969,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3067,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3165,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3263,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3361,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3459,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3557,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3655,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3753,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3851,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3949,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4047,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4145,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4243,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4341,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4439,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4537,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4635,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4733,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4831,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4929,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5027,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5125,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5223,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5321,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5419,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5517,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5615,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5713,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5811,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5909,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6007,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6105,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6203,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6301,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6399,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6497,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6595,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6693,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6791,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6889,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6987,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7085,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7183,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7281,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7379,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7477,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7575,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7673,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7771,7 +7776,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7869,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7967,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8065,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8163,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8261,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8359,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8457,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8555,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8653,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8751,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8849,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8947,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9045,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9143,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9241,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9339,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9437,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9535,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9633,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9731,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9829,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9927,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10025,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10123,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10221,7 +10226,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10319,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10417,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10515,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10613,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10711,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10809,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10907,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11005,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11103,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11201,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11299,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11397,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11495,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11593,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11691,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11789,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11887,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11985,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12083,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12181,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12279,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12377,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12475,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12573,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12671,7 +12676,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12769,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12867,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12965,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13063,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13161,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13259,7 +13264,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13357,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13455,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13553,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13651,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13749,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13847,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13945,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14043,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14141,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14239,7 +14244,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14337,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14435,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14533,7 +14538,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14770,125 +14775,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">

--- a/1019_drop/drop_info.xlsx
+++ b/1019_drop/drop_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msgame\ms_data_design\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_code\git-demo-A\1019_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8EEAF-CCF2-473B-B822-3A6FFC7127F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2782A18-D1E5-4C7D-8B51-89DF57EEB3EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="220">
   <si>
     <t>id,num</t>
   </si>
@@ -315,15 +315,6 @@
   </si>
   <si>
     <t>reward_pro_5</t>
-  </si>
-  <si>
-    <t>大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-1</t>
-  </si>
-  <si>
-    <t>选择大礼包-2</t>
   </si>
   <si>
     <t>嵌套测试礼包</t>
@@ -870,6 +861,13 @@
   </si>
   <si>
     <t>舞会藏宝图宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:测试1</t>
+  </si>
+  <si>
+    <t>A:测试1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1724,8 +1722,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2190,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -2288,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -2386,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2484,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -2582,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2680,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -2778,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2876,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2974,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -3072,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -3170,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -3268,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -3366,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -3464,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -3562,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -3660,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -3758,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -3856,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -3954,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -4052,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -4150,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4248,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -4346,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -4444,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -4542,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4640,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -4738,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -4836,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -4934,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -5032,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -5130,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -5228,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -5326,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
@@ -5424,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11">
         <v>2</v>
@@ -5522,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -5620,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
@@ -5718,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -5816,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5914,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -6012,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -6110,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -6208,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -6306,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
@@ -6404,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -6502,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -6600,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -6698,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -6796,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -6894,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -6992,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -7090,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -7188,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -7286,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>2</v>
@@ -7384,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -7482,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -7580,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -7678,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -7776,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -7874,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14">
         <v>2</v>
@@ -7972,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D65" s="14">
         <v>2</v>
@@ -8070,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D66" s="14">
         <v>2</v>
@@ -8168,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D67" s="14">
         <v>2</v>
@@ -8266,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="14">
         <v>2</v>
@@ -8364,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="14">
         <v>2</v>
@@ -8462,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14">
         <v>2</v>
@@ -8560,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="14">
         <v>2</v>
@@ -8658,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="14">
         <v>2</v>
@@ -8756,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -8854,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="14">
         <v>2</v>
@@ -8952,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="14">
         <v>2</v>
@@ -9050,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" s="14">
         <v>2</v>
@@ -9148,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -9246,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D78" s="14">
         <v>2</v>
@@ -9344,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" s="14">
         <v>2</v>
@@ -9442,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="14">
         <v>2</v>
@@ -9540,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D81" s="14">
         <v>2</v>
@@ -9638,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="14">
         <v>2</v>
@@ -9736,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14">
         <v>2</v>
@@ -9834,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14">
         <v>2</v>
@@ -9932,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D85" s="14">
         <v>2</v>
@@ -10030,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="14">
         <v>2</v>
@@ -10128,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" s="14">
         <v>2</v>
@@ -10226,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D88" s="14">
         <v>2</v>
@@ -10324,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D89" s="14">
         <v>2</v>
@@ -10422,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14">
         <v>2</v>
@@ -10520,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -10618,7 +10616,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" s="14">
         <v>2</v>
@@ -10716,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14">
         <v>2</v>
@@ -10814,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14">
         <v>2</v>
@@ -10912,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>2</v>
@@ -11010,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D96" s="13">
         <v>2</v>
@@ -11108,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -11206,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" s="13">
         <v>2</v>
@@ -11304,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -11402,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13">
         <v>2</v>
@@ -11500,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="13">
         <v>2</v>
@@ -11598,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D102" s="13">
         <v>2</v>
@@ -11696,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -11794,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -11892,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="14">
         <v>2</v>
@@ -11990,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14">
         <v>2</v>
@@ -12088,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D107" s="14">
         <v>2</v>
@@ -12186,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D108" s="14">
         <v>2</v>
@@ -12284,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D109" s="14">
         <v>2</v>
@@ -12382,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D110" s="16">
         <v>2</v>
@@ -12480,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D111" s="16">
         <v>2</v>
@@ -12578,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D112" s="16">
         <v>2</v>
@@ -12676,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
@@ -12774,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D114" s="16">
         <v>2</v>
@@ -12872,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -12970,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -13068,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -13166,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -13264,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D119" s="18">
         <v>2</v>
@@ -13362,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D120" s="18">
         <v>2</v>
@@ -13460,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D121" s="14">
         <v>2</v>
@@ -13558,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D122" s="14">
         <v>2</v>
@@ -13656,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D123" s="18">
         <v>2</v>
@@ -13754,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D124" s="18">
         <v>2</v>
@@ -13852,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D125" s="18">
         <v>2</v>
@@ -13950,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
@@ -14048,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -14146,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -14244,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -14342,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -14440,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -14538,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -14775,125 +14773,125 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
